--- a/Team-Data/2012-13/11-20-2012-13.xlsx
+++ b/Team-Data/2012-13/11-20-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
@@ -765,7 +832,7 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>10</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
         <v>30</v>
@@ -792,13 +859,13 @@
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>19</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
@@ -810,13 +877,13 @@
         <v>4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -929,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -989,7 +1056,7 @@
         <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ3" t="n">
         <v>15</v>
@@ -998,10 +1065,10 @@
         <v>17</v>
       </c>
       <c r="BB3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="H4" t="n">
         <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.453</v>
       </c>
       <c r="L4" t="n">
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="P4" t="n">
-        <v>25.2</v>
+        <v>25.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R4" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
         <v>13.9</v>
@@ -1090,73 +1157,73 @@
         <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y4" t="n">
         <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.4</v>
+        <v>17.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
         <v>4</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU4" t="n">
         <v>22</v>
@@ -1168,22 +1235,22 @@
         <v>26</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BA4" t="n">
         <v>3</v>
       </c>
       <c r="BB4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1360,7 @@
         <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
         <v>9</v>
@@ -1311,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
@@ -1329,13 +1396,13 @@
         <v>6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
@@ -1514,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-7</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1702,16 +1769,16 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -1839,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>8</v>
@@ -1863,19 +1930,19 @@
         <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
         <v>3</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1887,7 +1954,7 @@
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV8" t="n">
         <v>16</v>
@@ -1905,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -2021,10 +2088,10 @@
         <v>4</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>20</v>
@@ -2039,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
@@ -2072,10 +2139,10 @@
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2318,7 @@
         <v>28</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>18</v>
@@ -2260,7 +2327,7 @@
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>12</v>
@@ -2275,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
@@ -2394,7 +2461,7 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI11" t="n">
         <v>11</v>
@@ -2415,7 +2482,7 @@
         <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -2573,25 +2640,25 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>7</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
       </c>
       <c r="AM12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN12" t="n">
         <v>22</v>
@@ -2609,19 +2676,19 @@
         <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>25</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
@@ -2767,7 +2834,7 @@
         <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2803,7 +2870,7 @@
         <v>29</v>
       </c>
       <c r="AW13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
@@ -2815,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="BA13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>8.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2946,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2958,10 +3025,10 @@
         <v>22</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>7</v>
@@ -2976,13 +3043,13 @@
         <v>13</v>
       </c>
       <c r="AT14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -3032,94 +3099,94 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.545</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J15" t="n">
-        <v>78.2</v>
+        <v>78.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M15" t="n">
         <v>20.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P15" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.67</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>46.5</v>
+        <v>46.8</v>
       </c>
       <c r="U15" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V15" t="n">
-        <v>16.4</v>
+        <v>16.9</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
         <v>17.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="AC15" t="n">
         <v>5</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
@@ -3128,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
         <v>6</v>
@@ -3137,10 +3204,10 @@
         <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,19 +3219,19 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
         <v>16</v>
@@ -3176,13 +3243,13 @@
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC15" t="n">
         <v>5</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -3337,13 +3404,13 @@
         <v>9</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU16" t="n">
         <v>16</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>17</v>
       </c>
       <c r="AV16" t="n">
         <v>8</v>
@@ -3352,10 +3419,10 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>21</v>
@@ -3364,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="BB16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -3480,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3492,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -3519,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
         <v>29</v>
@@ -3531,7 +3598,7 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>20</v>
@@ -3549,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="BC17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -3659,13 +3726,13 @@
         <v>23</v>
       </c>
       <c r="AE18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>8</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>7</v>
       </c>
       <c r="AH18" t="n">
         <v>15</v>
@@ -3686,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3713,7 +3780,7 @@
         <v>11</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>6</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
         <v>9</v>
@@ -3889,7 +3956,7 @@
         <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
         <v>21</v>
@@ -3904,13 +3971,13 @@
         <v>16</v>
       </c>
       <c r="AZ19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -3942,106 +4009,106 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.1</v>
+        <v>34.8</v>
       </c>
       <c r="J20" t="n">
-        <v>77.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M20" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.358</v>
+        <v>0.347</v>
       </c>
       <c r="O20" t="n">
-        <v>16.9</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
         <v>21</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.804</v>
+        <v>0.821</v>
       </c>
       <c r="R20" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
-        <v>40.7</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="V20" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W20" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="AA20" t="n">
         <v>19.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>91.7</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.2</v>
+        <v>-3.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4050,7 +4117,7 @@
         <v>18</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
         <v>17</v>
@@ -4062,40 +4129,40 @@
         <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA20" t="n">
         <v>23</v>
       </c>
-      <c r="AU20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>24</v>
-      </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -4124,88 +4191,88 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.889</v>
+        <v>0.875</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J21" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.452</v>
       </c>
       <c r="L21" t="n">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="M21" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="N21" t="n">
         <v>0.393</v>
       </c>
       <c r="O21" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P21" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="S21" t="n">
-        <v>30.6</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="U21" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA21" t="n">
         <v>19.3</v>
       </c>
-      <c r="V21" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="X21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19.4</v>
-      </c>
       <c r="AB21" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>1</v>
@@ -4220,16 +4287,16 @@
         <v>6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21" t="n">
         <v>4</v>
@@ -4241,16 +4308,16 @@
         <v>24</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AS21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4259,22 +4326,22 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
         <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>23</v>
       </c>
       <c r="BB21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC21" t="n">
         <v>1</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -4390,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -4435,10 +4502,10 @@
         <v>17</v>
       </c>
       <c r="AU22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>25</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>24</v>
@@ -4608,16 +4675,16 @@
         <v>18</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT23" t="n">
         <v>8</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.636</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>34.4</v>
+        <v>33.8</v>
       </c>
       <c r="J24" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.415</v>
+        <v>0.41</v>
       </c>
       <c r="L24" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M24" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O24" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="P24" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.784</v>
+        <v>0.772</v>
       </c>
       <c r="R24" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S24" t="n">
         <v>31.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U24" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.5</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.4</v>
+        <v>-1.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
@@ -4763,19 +4830,19 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN24" t="n">
         <v>5</v>
@@ -4787,7 +4854,7 @@
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR24" t="n">
         <v>22</v>
@@ -4802,19 +4869,19 @@
         <v>24</v>
       </c>
       <c r="AV24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW24" t="n">
         <v>13</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
         <v>27</v>
@@ -4823,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -4939,7 +5006,7 @@
         <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
         <v>13</v>
@@ -4972,16 +5039,16 @@
         <v>22</v>
       </c>
       <c r="AR25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>10</v>
       </c>
       <c r="AU25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-1.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF26" t="n">
         <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>4</v>
@@ -5160,13 +5227,13 @@
         <v>27</v>
       </c>
       <c r="AT26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU26" t="n">
         <v>27</v>
       </c>
       <c r="AV26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW26" t="n">
         <v>8</v>
@@ -5175,7 +5242,7 @@
         <v>22</v>
       </c>
       <c r="AY26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="n">
         <v>14</v>
@@ -5184,7 +5251,7 @@
         <v>6</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
@@ -5327,7 +5394,7 @@
         <v>28</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
@@ -5351,7 +5418,7 @@
         <v>9</v>
       </c>
       <c r="AW27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX27" t="n">
         <v>21</v>
@@ -5360,7 +5427,7 @@
         <v>28</v>
       </c>
       <c r="AZ27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -5482,10 +5549,10 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>15</v>
@@ -5500,7 +5567,7 @@
         <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
         <v>11</v>
@@ -5524,13 +5591,13 @@
         <v>15</v>
       </c>
       <c r="AT28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>10</v>
@@ -5542,7 +5609,7 @@
         <v>19</v>
       </c>
       <c r="AZ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
         <v>25</v>
@@ -5551,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.273</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="I29" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J29" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.422</v>
+        <v>0.419</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="M29" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="N29" t="n">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
       <c r="O29" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P29" t="n">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.766</v>
+        <v>0.775</v>
       </c>
       <c r="R29" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S29" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.7</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>20.4</v>
       </c>
       <c r="V29" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="AD29" t="n">
         <v>13</v>
-      </c>
-      <c r="W29" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH29" t="n">
         <v>1</v>
@@ -5679,61 +5746,61 @@
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
         <v>17</v>
       </c>
       <c r="AS29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU29" t="n">
         <v>23</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX29" t="n">
         <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -5843,13 +5910,13 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>3</v>
@@ -5870,7 +5937,7 @@
         <v>19</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>14</v>
@@ -5882,10 +5949,10 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT30" t="n">
         <v>3</v>
@@ -5903,7 +5970,7 @@
         <v>2</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
@@ -6061,19 +6128,19 @@
         <v>29</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
         <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-20-2012-13</t>
+          <t>2012-11-20</t>
         </is>
       </c>
     </row>
